--- a/panel_reports_meta.xlsx
+++ b/panel_reports_meta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chanyaaaas/Documents/WTO_panel_citation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C9B53B-2A5A-7F4A-A2D6-2D58697401BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A648B1F-597A-4441-8ACC-1E1E0D060F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="16440" xr2:uid="{353AE7BB-2FFE-6947-98D7-0199F3BB7BA3}"/>
   </bookViews>
@@ -2374,7 +2374,7 @@
   <dimension ref="A1:C111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
